--- a/10-razpredelnice/rezultati.xlsx
+++ b/10-razpredelnice/rezultati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianj\Documents\FMF\rp\10-razpredelnice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianj\Documents\FMF\rp\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082D95B-6A4D-422E-BC30-DFF341ECBAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5A84FB-E913-4959-8652-43BDB3B26A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Rezultati" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>Priimek</t>
   </si>
@@ -240,6 +243,18 @@
   </si>
   <si>
     <t>Minimum</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Udeležbaa</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -742,9 +757,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -790,42 +810,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -833,10 +818,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -861,394 +845,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>Velikost</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> skupin</a:t>
-            </a:r>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.032520325203252E-2"/>
-          <c:y val="0.22394149345650505"/>
-          <c:w val="0.87433422956276807"/>
-          <c:h val="0.66058506543494999"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:explosion val="46"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-090F-451C-835A-60AA2FC3DB2B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sl-SI"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rezultati'!$H$8:$H$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rezultati'!$I$8:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-090F-451C-835A-60AA2FC3DB2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1756,6 +1352,403 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" b="1"/>
+              <a:t>Velikosti</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" b="1" baseline="0"/>
+              <a:t> skupin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10613977774054838"/>
+          <c:y val="0.23859288107345114"/>
+          <c:w val="0.71291003518177254"/>
+          <c:h val="0.55225988220154987"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="47"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-40F2-4E99-B658-6A1870F45AB4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sl-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rezultati'!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rezultati'!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40F2-4E99-B658-6A1870F45AB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8471754062657062"/>
+          <c:y val="0.31808699398536305"/>
+          <c:w val="0.131547997989613"/>
+          <c:h val="0.45806590590862967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1837,7 +1830,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1894,7 +1887,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1945,6 +1938,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050">
         <a:solidFill>
@@ -2355,530 +2851,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6C6372-307D-3D20-0EF0-062BA5607571}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88705D89-3F3C-CE16-9455-F278999580B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,22 +2892,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88705D89-3F3C-CE16-9455-F278999580B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B162DB25-5A42-6112-C243-9123D9DF1C30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,6 +2928,164 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="tianj" refreshedDate="45635.739114467593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{1E0092B5-E8CF-446A-AB24-11009864353A}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Skupine"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Test" numFmtId="0">
+      <sharedItems count="3">
+        <s v="A"/>
+        <s v="B"/>
+        <s v="C"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Udeležba" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="12" count="3">
+        <n v="9"/>
+        <n v="12"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2022" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.714285714285715" maxValue="66.5" count="3">
+        <n v="58.222222222222221"/>
+        <n v="66.5"/>
+        <n v="47.714285714285715"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2021" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="49.66" maxValue="66.84"/>
+    </cacheField>
+    <cacheField name="Maksimum" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="76" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Minimum" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="36"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="66.84"/>
+    <n v="94"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="52.35"/>
+    <n v="100"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="49.66"/>
+    <n v="76"/>
+    <n v="26"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AF9FF0-A605-44C5-95A5-36940363641C}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Skupina">
+  <location ref="H9:L13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Udeležbaa" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Povprečje" fld="2" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Max" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Min" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07C90745-5D9B-DB4B-840E-195183B97A51}" name="Rezultati" displayName="Rezultati" ref="B2:F30" totalsRowShown="0">
   <autoFilter ref="B2:F30" xr:uid="{07C90745-5D9B-DB4B-840E-195183B97A51}"/>
@@ -2946,7 +3097,7 @@
     <tableColumn id="2" xr3:uid="{1516B636-A66A-2F4C-90DA-D664D3A1EBF9}" name="Ime"/>
     <tableColumn id="3" xr3:uid="{4228D6B7-8EB4-0245-B28A-8C1E7596D7AA}" name="Skupina"/>
     <tableColumn id="4" xr3:uid="{D7BCD06B-AAB1-E14C-9780-EB9AFE9CDDAF}" name="Točke"/>
-    <tableColumn id="5" xr3:uid="{A572DA5B-37ED-FF49-A08A-839E55F45206}" name="Opravil" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{A572DA5B-37ED-FF49-A08A-839E55F45206}" name="Opravil" dataDxfId="5">
       <calculatedColumnFormula>IF(E3&gt;=50,"Da","Ne")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2955,41 +3106,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}" name="Skupine" displayName="Skupine" ref="H2:K5" totalsRowShown="0">
-  <autoFilter ref="H2:K5" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}" name="Skupine" displayName="Skupine" ref="H2:M5" totalsRowShown="0">
+  <autoFilter ref="H2:M5" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{26F1C940-A3E1-AA4A-B91A-EA859D7A62AD}" name="Test"/>
-    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba" dataDxfId="4">
       <calculatedColumnFormula>COUNTIF(Rezultati[Skupina],Skupine[[#This Row],[Test]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022" dataDxfId="3">
       <calculatedColumnFormula>AVERAGEIF($D$3:$D$30,H3,$E$3:$E$30)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B0EFA30B-7FCE-C547-8EC0-FF89353D2666}" name="2021"/>
+    <tableColumn id="5" xr3:uid="{C4D5F10E-4E3E-463C-B480-D50345BF301A}" name="Maksimum" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{72310091-65F0-4CF0-92F5-F07C7032C668}" name="Minimum" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{95EC31FE-2AEF-4DF5-A9B3-00435453FCE6}" name="Table6" displayName="Table6" ref="H7:L10" totalsRowShown="0">
-  <autoFilter ref="H7:L10" xr:uid="{95EC31FE-2AEF-4DF5-A9B3-00435453FCE6}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F4E8A5-DA19-4933-95B0-AB6CFCCAF539}" name="Skupina"/>
-    <tableColumn id="2" xr3:uid="{0ED34DFD-1E09-43A6-8060-748393E77696}" name="Udeležba" dataDxfId="9">
-      <calculatedColumnFormula>COUNTIF(Rezultati[Skupina],Table6[[#This Row],[Skupina]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9C4A4E0-00F6-48AC-AA7A-80D6580676B3}" name="Povprečje" dataDxfId="10">
-      <calculatedColumnFormula>AVERAGEIF($D$3:$D$30,H8,$E$3:$E$30)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{E4C8806D-F4B6-47F5-B218-FF754C95E36D}" name="Maksimum" dataDxfId="8">
-      <calculatedColumnFormula>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{003F625D-11D2-4F49-911D-80537C620998}" name="Minimum" dataDxfId="7">
-      <calculatedColumnFormula>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3280,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3295,13 +3430,14 @@
     <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3329,8 +3465,14 @@
       <c r="K2" t="s">
         <v>64</v>
       </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -3361,8 +3503,16 @@
       <c r="K3">
         <v>66.84</v>
       </c>
+      <c r="L3">
+        <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
+        <v>94</v>
+      </c>
+      <c r="M3">
+        <f>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -3393,8 +3543,16 @@
       <c r="K4">
         <v>52.35</v>
       </c>
+      <c r="L4">
+        <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <f>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3425,8 +3583,16 @@
       <c r="K5">
         <v>49.66</v>
       </c>
+      <c r="L5">
+        <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
+        <v>76</v>
+      </c>
+      <c r="M5">
+        <f>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3444,7 +3610,7 @@
         <v>Da</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -3461,23 +3627,8 @@
         <f t="shared" si="0"/>
         <v>Da</v>
       </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -3494,27 +3645,10 @@
         <f t="shared" si="0"/>
         <v>Da</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <f>COUNTIF(Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>9</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" ref="J8:J10" si="2">AVERAGEIF($D$3:$D$30,H8,$E$3:$E$30)</f>
-        <v>58.222222222222221</v>
-      </c>
-      <c r="K8">
-        <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>94</v>
-      </c>
-      <c r="L8">
-        <f>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>34</v>
-      </c>
+      <c r="J8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3531,27 +3665,24 @@
         <f t="shared" si="0"/>
         <v>Da</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9">
-        <f>COUNTIF(Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>12</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="2"/>
-        <v>66.5</v>
-      </c>
-      <c r="K9">
-        <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <f>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>36</v>
-      </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -3568,27 +3699,24 @@
         <f t="shared" si="0"/>
         <v>Ne</v>
       </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <f>COUNTIF(Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>7</v>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>47.714285714285715</v>
-      </c>
-      <c r="K10">
-        <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>76</v>
-      </c>
-      <c r="L10">
-        <f>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Table6[[#This Row],[Skupina]])</f>
-        <v>26</v>
-      </c>
+        <v>58.222222222222221</v>
+      </c>
+      <c r="K10" s="4">
+        <v>94</v>
+      </c>
+      <c r="L10" s="4">
+        <v>34</v>
+      </c>
+      <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3605,8 +3733,23 @@
         <f t="shared" si="0"/>
         <v>Ne</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>100</v>
+      </c>
+      <c r="L11" s="4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -3623,8 +3766,23 @@
         <f t="shared" si="0"/>
         <v>Ne</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>47.714285714285715</v>
+      </c>
+      <c r="K12" s="4">
+        <v>76</v>
+      </c>
+      <c r="L12" s="4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -3641,8 +3799,23 @@
         <f t="shared" si="0"/>
         <v>Da</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="4">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1">
+        <v>172.43650793650795</v>
+      </c>
+      <c r="K13" s="4">
+        <v>270</v>
+      </c>
+      <c r="L13" s="4">
+        <v>96</v>
+      </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -3660,7 +3833,7 @@
         <v>Da</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -3678,7 +3851,7 @@
         <v>Da</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -3950,14 +4123,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:C30 E3:E30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E3&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
   </tableParts>

--- a/10-razpredelnice/rezultati.xlsx
+++ b/10-razpredelnice/rezultati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianj\Documents\FMF\rp\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5A84FB-E913-4959-8652-43BDB3B26A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBC772-6135-4AE4-82CA-CAD9A0BF4859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -757,14 +757,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -812,15 +811,15 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1501,11 +1500,16 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B958-4DBA-B990-4507006344C3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="47"/>
+            <c:explosion val="31"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1547,6 +1551,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B958-4DBA-B990-4507006344C3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1666,16 +1675,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.8471754062657062"/>
-          <c:y val="0.31808699398536305"/>
-          <c:w val="0.131547997989613"/>
-          <c:h val="0.45806590590862967"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2856,15 +2855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>830580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2897,8 +2896,8 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3003,7 +3002,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AF9FF0-A605-44C5-95A5-36940363641C}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Skupina">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AF9FF0-A605-44C5-95A5-36940363641C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Skupina">
   <location ref="H9:L13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3117,10 +3116,10 @@
       <calculatedColumnFormula>AVERAGEIF($D$3:$D$30,H3,$E$3:$E$30)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B0EFA30B-7FCE-C547-8EC0-FF89353D2666}" name="2021"/>
-    <tableColumn id="5" xr3:uid="{C4D5F10E-4E3E-463C-B480-D50345BF301A}" name="Maksimum" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{C4D5F10E-4E3E-463C-B480-D50345BF301A}" name="Maksimum" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{72310091-65F0-4CF0-92F5-F07C7032C668}" name="Minimum" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{72310091-65F0-4CF0-92F5-F07C7032C668}" name="Minimum" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3418,7 +3417,7 @@
   <dimension ref="B2:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3431,10 +3430,10 @@
     <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
@@ -3702,16 +3701,16 @@
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" s="1">
         <v>58.222222222222221</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>94</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>34</v>
       </c>
       <c r="R10" s="1"/>
@@ -3736,16 +3735,16 @@
       <c r="H11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>12</v>
       </c>
       <c r="J11" s="1">
         <v>66.5</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>100</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>36</v>
       </c>
     </row>
@@ -3769,16 +3768,16 @@
       <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>7</v>
       </c>
       <c r="J12" s="1">
         <v>47.714285714285715</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>76</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>26</v>
       </c>
     </row>
@@ -3802,16 +3801,16 @@
       <c r="H13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>28</v>
       </c>
       <c r="J13" s="1">
         <v>172.43650793650795</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>270</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>96</v>
       </c>
     </row>
@@ -4123,7 +4122,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:C30 E3:E30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E3&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
